--- a/butterfly_forage_plants.xlsx
+++ b/butterfly_forage_plants.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD60533A-5048-3E45-8993-25582BDEA4C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E724B4-1268-C345-A75F-90D7521C2894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D91D42CE-DEEB-2E4F-9729-BAAF2993C857}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D07C6-306D-9042-A539-6AA44E63D9F9}">
   <dimension ref="A1:BG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ13" workbookViewId="0">
-      <selection activeCell="AT42" sqref="AT42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -916,9 +916,7 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="1">
@@ -1058,9 +1056,7 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="1">
@@ -1207,9 +1203,7 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="1">
@@ -1344,9 +1338,7 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="2">
-        <v>1</v>
-      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="1">
@@ -1482,9 +1474,7 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
-        <v>1</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="1">
@@ -1619,9 +1609,7 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="1">
@@ -1756,9 +1744,7 @@
       <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="1">
@@ -1914,9 +1900,7 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="2">
-        <v>1</v>
-      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="1">
@@ -2051,9 +2035,7 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="1">
@@ -2191,9 +2173,7 @@
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="1">
@@ -2328,9 +2308,7 @@
       <c r="G23" s="1">
         <v>1</v>
       </c>
-      <c r="H23" s="2">
-        <v>1</v>
-      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="1">
@@ -2465,9 +2443,7 @@
       <c r="G25" s="1">
         <v>1</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1">
@@ -2602,9 +2578,7 @@
       <c r="G27" s="1">
         <v>1</v>
       </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1">
@@ -2739,9 +2713,7 @@
       <c r="G29" s="1">
         <v>1</v>
       </c>
-      <c r="H29" s="2">
-        <v>1</v>
-      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1">
@@ -2879,9 +2851,7 @@
       <c r="G31" s="1">
         <v>1</v>
       </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="1">
@@ -3016,9 +2986,7 @@
       <c r="G33" s="1">
         <v>1</v>
       </c>
-      <c r="H33" s="2">
-        <v>1</v>
-      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="1">
@@ -3153,9 +3121,7 @@
       <c r="G35" s="1">
         <v>1</v>
       </c>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1">
@@ -3290,9 +3256,7 @@
       <c r="G37" s="1">
         <v>1</v>
       </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1">
@@ -3427,9 +3391,7 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="2">
-        <v>1</v>
-      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1">
@@ -3564,9 +3526,7 @@
       <c r="G41" s="1">
         <v>1</v>
       </c>
-      <c r="H41" s="2">
-        <v>1</v>
-      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1">
@@ -3704,9 +3664,7 @@
       <c r="G43" s="1">
         <v>1</v>
       </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="1">
@@ -3841,9 +3799,7 @@
       <c r="G45" s="1">
         <v>1</v>
       </c>
-      <c r="H45" s="2">
-        <v>1</v>
-      </c>
+      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="1">
@@ -3978,9 +3934,7 @@
       <c r="G47" s="1">
         <v>1</v>
       </c>
-      <c r="H47" s="2">
-        <v>1</v>
-      </c>
+      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="1">
@@ -4118,9 +4072,7 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
+      <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="1">

--- a/butterfly_forage_plants.xlsx
+++ b/butterfly_forage_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E724B4-1268-C345-A75F-90D7521C2894}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F704256C-A382-1547-9EDB-7A2223A82BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D91D42CE-DEEB-2E4F-9729-BAAF2993C857}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -692,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D07C6-306D-9042-A539-6AA44E63D9F9}">
   <dimension ref="A1:BG49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="AI9" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2157,7 +2156,7 @@
         <v>1</v>
       </c>
       <c r="AT20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.2">
@@ -3648,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="AT42" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.2">

--- a/butterfly_forage_plants.xlsx
+++ b/butterfly_forage_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F704256C-A382-1547-9EDB-7A2223A82BE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF81E2-A715-0143-BEDD-05243B40BD84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D91D42CE-DEEB-2E4F-9729-BAAF2993C857}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
   <si>
     <t>Aquifoliaceae</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>species_end</t>
+  </si>
+  <si>
+    <t>Crops</t>
   </si>
 </sst>
 </file>
@@ -689,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D07C6-306D-9042-A539-6AA44E63D9F9}">
-  <dimension ref="A1:BG49"/>
+  <dimension ref="A1:BH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI9" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT21"/>
+    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,11 +704,13 @@
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" style="5" customWidth="1"/>
     <col min="4" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="59" max="59" width="10.83203125" style="5"/>
+    <col min="9" max="42" width="10.83203125" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -767,124 +772,127 @@
         <v>10</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AU1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AX1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BB1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BE1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BF1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -898,11 +906,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="AU2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="AV2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -946,84 +954,85 @@
       <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="U3" s="1">
-        <v>1</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1">
-        <v>1</v>
-      </c>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>1</v>
+      </c>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
-      <c r="AC3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
-      <c r="AG3" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG3" s="1"/>
       <c r="AH3" s="1">
         <v>1</v>
       </c>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="1"/>
       <c r="AK3" s="1">
         <v>1</v>
       </c>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="1"/>
       <c r="AN3" s="1">
         <v>1</v>
       </c>
-      <c r="AO3" s="1"/>
+      <c r="AO3" s="1">
+        <v>1</v>
+      </c>
       <c r="AP3" s="1"/>
-      <c r="AQ3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU3" s="1"/>
       <c r="AV3" s="1">
         <v>1</v>
       </c>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1"/>
       <c r="AY3" s="1">
         <v>1</v>
       </c>
-      <c r="AZ3" s="1"/>
+      <c r="AZ3" s="1">
+        <v>1</v>
+      </c>
       <c r="BA3" s="1"/>
-      <c r="BB3" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB3" s="1"/>
       <c r="BC3" s="1">
         <v>1</v>
       </c>
-      <c r="BD3" s="1"/>
+      <c r="BD3" s="1">
+        <v>1</v>
+      </c>
       <c r="BE3" s="1"/>
-      <c r="BF3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -1037,12 +1046,12 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="AU4" s="1"/>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="AV4" s="1"/>
+      <c r="AW4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1086,84 +1095,85 @@
       <c r="T5" s="1">
         <v>1</v>
       </c>
-      <c r="U5" s="1">
-        <v>1</v>
-      </c>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1">
-        <v>1</v>
-      </c>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1">
+        <v>1</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
-      <c r="AC5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG5" s="1"/>
       <c r="AH5" s="1">
         <v>1</v>
       </c>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="1"/>
       <c r="AK5" s="1">
         <v>1</v>
       </c>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1"/>
       <c r="AN5" s="1">
         <v>1</v>
       </c>
-      <c r="AO5" s="1"/>
+      <c r="AO5" s="1">
+        <v>1</v>
+      </c>
       <c r="AP5" s="1"/>
-      <c r="AQ5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU5" s="1"/>
       <c r="AV5" s="1">
         <v>1</v>
       </c>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="1"/>
       <c r="AY5" s="1">
         <v>1</v>
       </c>
-      <c r="AZ5" s="1"/>
+      <c r="AZ5" s="1">
+        <v>1</v>
+      </c>
       <c r="BA5" s="1"/>
-      <c r="BB5" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB5" s="1"/>
       <c r="BC5" s="1">
         <v>1</v>
       </c>
-      <c r="BD5" s="1"/>
+      <c r="BD5" s="1">
+        <v>1</v>
+      </c>
       <c r="BE5" s="1"/>
-      <c r="BF5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1176,20 +1186,20 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AX6">
-        <v>1</v>
-      </c>
-      <c r="BB6">
-        <v>1</v>
-      </c>
-      <c r="BD6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AY6">
+        <v>1</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1233,84 +1243,85 @@
       <c r="T7" s="1">
         <v>1</v>
       </c>
-      <c r="U7" s="1">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1">
-        <v>1</v>
-      </c>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
-      <c r="AC7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1">
+        <v>1</v>
+      </c>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG7" s="1"/>
       <c r="AH7" s="1">
         <v>1</v>
       </c>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="1"/>
       <c r="AK7" s="1">
         <v>1</v>
       </c>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="1"/>
       <c r="AN7" s="1">
         <v>1</v>
       </c>
-      <c r="AO7" s="1"/>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
       <c r="AP7" s="1"/>
-      <c r="AQ7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1"/>
       <c r="AV7" s="1">
         <v>1</v>
       </c>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="1"/>
       <c r="AY7" s="1">
         <v>1</v>
       </c>
-      <c r="AZ7" s="1"/>
+      <c r="AZ7" s="1">
+        <v>1</v>
+      </c>
       <c r="BA7" s="1"/>
-      <c r="BB7" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB7" s="1"/>
       <c r="BC7" s="1">
         <v>1</v>
       </c>
-      <c r="BD7" s="1"/>
+      <c r="BD7" s="1">
+        <v>1</v>
+      </c>
       <c r="BE7" s="1"/>
-      <c r="BF7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1320,11 +1331,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1368,84 +1379,85 @@
       <c r="T9" s="1">
         <v>1</v>
       </c>
-      <c r="U9" s="1">
-        <v>1</v>
-      </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1">
-        <v>1</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1">
+        <v>1</v>
+      </c>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
-      <c r="AC9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1">
+        <v>1</v>
+      </c>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG9" s="1"/>
       <c r="AH9" s="1">
         <v>1</v>
       </c>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1"/>
       <c r="AK9" s="1">
         <v>1</v>
       </c>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="1"/>
       <c r="AN9" s="1">
         <v>1</v>
       </c>
-      <c r="AO9" s="1"/>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
       <c r="AP9" s="1"/>
-      <c r="AQ9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="1"/>
       <c r="AV9" s="1">
         <v>1</v>
       </c>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="1"/>
       <c r="AY9" s="1">
         <v>1</v>
       </c>
-      <c r="AZ9" s="1"/>
+      <c r="AZ9" s="1">
+        <v>1</v>
+      </c>
       <c r="BA9" s="1"/>
-      <c r="BB9" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB9" s="1"/>
       <c r="BC9" s="1">
         <v>1</v>
       </c>
-      <c r="BD9" s="1"/>
+      <c r="BD9" s="1">
+        <v>1</v>
+      </c>
       <c r="BE9" s="1"/>
-      <c r="BF9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BF9" s="1"/>
+      <c r="BG9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1456,11 +1468,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="1"/>
-      <c r="AP10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="AQ10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1504,84 +1516,85 @@
       <c r="T11" s="1">
         <v>1</v>
       </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1">
-        <v>1</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1">
+        <v>1</v>
+      </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
-      <c r="AC11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1">
+        <v>1</v>
+      </c>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG11" s="1"/>
       <c r="AH11" s="1">
         <v>1</v>
       </c>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1"/>
       <c r="AK11" s="1">
         <v>1</v>
       </c>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="1"/>
       <c r="AN11" s="1">
         <v>1</v>
       </c>
-      <c r="AO11" s="1"/>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
       <c r="AP11" s="1"/>
-      <c r="AQ11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="1"/>
       <c r="AV11" s="1">
         <v>1</v>
       </c>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1"/>
       <c r="AY11" s="1">
         <v>1</v>
       </c>
-      <c r="AZ11" s="1"/>
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
       <c r="BA11" s="1"/>
-      <c r="BB11" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB11" s="1"/>
       <c r="BC11" s="1">
         <v>1</v>
       </c>
-      <c r="BD11" s="1"/>
+      <c r="BD11" s="1">
+        <v>1</v>
+      </c>
       <c r="BE11" s="1"/>
-      <c r="BF11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BF11" s="1"/>
+      <c r="BG11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1591,11 +1604,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="AP12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1639,84 +1652,85 @@
       <c r="T13" s="1">
         <v>1</v>
       </c>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1">
-        <v>1</v>
-      </c>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1">
+        <v>1</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
-      <c r="AC13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1">
+        <v>1</v>
+      </c>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG13" s="1"/>
       <c r="AH13" s="1">
         <v>1</v>
       </c>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1"/>
       <c r="AK13" s="1">
         <v>1</v>
       </c>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="1"/>
       <c r="AN13" s="1">
         <v>1</v>
       </c>
-      <c r="AO13" s="1"/>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
       <c r="AP13" s="1"/>
-      <c r="AQ13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="1"/>
       <c r="AV13" s="1">
         <v>1</v>
       </c>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1"/>
       <c r="AY13" s="1">
         <v>1</v>
       </c>
-      <c r="AZ13" s="1"/>
+      <c r="AZ13" s="1">
+        <v>1</v>
+      </c>
       <c r="BA13" s="1"/>
-      <c r="BB13" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB13" s="1"/>
       <c r="BC13" s="1">
         <v>1</v>
       </c>
-      <c r="BD13" s="1"/>
+      <c r="BD13" s="1">
+        <v>1</v>
+      </c>
       <c r="BE13" s="1"/>
-      <c r="BF13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1726,11 +1740,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1774,84 +1788,85 @@
       <c r="T15" s="1">
         <v>1</v>
       </c>
-      <c r="U15" s="1">
-        <v>1</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1">
-        <v>1</v>
-      </c>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1">
+        <v>1</v>
+      </c>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1">
+        <v>1</v>
+      </c>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG15" s="1"/>
       <c r="AH15" s="1">
         <v>1</v>
       </c>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="1"/>
       <c r="AK15" s="1">
         <v>1</v>
       </c>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="1"/>
       <c r="AN15" s="1">
         <v>1</v>
       </c>
-      <c r="AO15" s="1"/>
+      <c r="AO15" s="1">
+        <v>1</v>
+      </c>
       <c r="AP15" s="1"/>
-      <c r="AQ15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU15" s="1"/>
       <c r="AV15" s="1">
         <v>1</v>
       </c>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="1"/>
       <c r="AY15" s="1">
         <v>1</v>
       </c>
-      <c r="AZ15" s="1"/>
+      <c r="AZ15" s="1">
+        <v>1</v>
+      </c>
       <c r="BA15" s="1"/>
-      <c r="BB15" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB15" s="1"/>
       <c r="BC15" s="1">
         <v>1</v>
       </c>
-      <c r="BD15" s="1"/>
+      <c r="BD15" s="1">
+        <v>1</v>
+      </c>
       <c r="BE15" s="1"/>
-      <c r="BF15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1876,17 +1891,17 @@
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="Y16">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1930,84 +1945,85 @@
       <c r="T17" s="1">
         <v>1</v>
       </c>
-      <c r="U17" s="1">
-        <v>1</v>
-      </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1">
-        <v>1</v>
-      </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
-      <c r="AC17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1">
+        <v>1</v>
+      </c>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG17" s="1"/>
       <c r="AH17" s="1">
         <v>1</v>
       </c>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="1"/>
       <c r="AK17" s="1">
         <v>1</v>
       </c>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="1"/>
       <c r="AN17" s="1">
         <v>1</v>
       </c>
-      <c r="AO17" s="1"/>
+      <c r="AO17" s="1">
+        <v>1</v>
+      </c>
       <c r="AP17" s="1"/>
-      <c r="AQ17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="1"/>
       <c r="AV17" s="1">
         <v>1</v>
       </c>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="1"/>
       <c r="AY17" s="1">
         <v>1</v>
       </c>
-      <c r="AZ17" s="1"/>
+      <c r="AZ17" s="1">
+        <v>1</v>
+      </c>
       <c r="BA17" s="1"/>
-      <c r="BB17" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB17" s="1"/>
       <c r="BC17" s="1">
         <v>1</v>
       </c>
-      <c r="BD17" s="1"/>
+      <c r="BD17" s="1">
+        <v>1</v>
+      </c>
       <c r="BE17" s="1"/>
-      <c r="BF17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2017,11 +2033,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="AP18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2065,84 +2081,85 @@
       <c r="T19" s="1">
         <v>1</v>
       </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
-      <c r="AC19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1">
+        <v>1</v>
+      </c>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG19" s="1"/>
       <c r="AH19" s="1">
         <v>1</v>
       </c>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="1"/>
       <c r="AK19" s="1">
         <v>1</v>
       </c>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="1"/>
       <c r="AN19" s="1">
         <v>1</v>
       </c>
-      <c r="AO19" s="1"/>
+      <c r="AO19" s="1">
+        <v>1</v>
+      </c>
       <c r="AP19" s="1"/>
-      <c r="AQ19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU19" s="1"/>
       <c r="AV19" s="1">
         <v>1</v>
       </c>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX19" s="1"/>
       <c r="AY19" s="1">
         <v>1</v>
       </c>
-      <c r="AZ19" s="1"/>
+      <c r="AZ19" s="1">
+        <v>1</v>
+      </c>
       <c r="BA19" s="1"/>
-      <c r="BB19" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB19" s="1"/>
       <c r="BC19" s="1">
         <v>1</v>
       </c>
-      <c r="BD19" s="1"/>
+      <c r="BD19" s="1">
+        <v>1</v>
+      </c>
       <c r="BE19" s="1"/>
-      <c r="BF19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2155,11 +2172,14 @@
       <c r="U20">
         <v>1</v>
       </c>
-      <c r="AT20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2203,84 +2223,85 @@
       <c r="T21" s="1">
         <v>1</v>
       </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1">
-        <v>1</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
-      <c r="AC21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1">
+        <v>1</v>
+      </c>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG21" s="1"/>
       <c r="AH21" s="1">
         <v>1</v>
       </c>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="1"/>
       <c r="AK21" s="1">
         <v>1</v>
       </c>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="1"/>
       <c r="AN21" s="1">
         <v>1</v>
       </c>
-      <c r="AO21" s="1"/>
+      <c r="AO21" s="1">
+        <v>1</v>
+      </c>
       <c r="AP21" s="1"/>
-      <c r="AQ21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="1"/>
       <c r="AV21" s="1">
         <v>1</v>
       </c>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="1"/>
       <c r="AY21" s="1">
         <v>1</v>
       </c>
-      <c r="AZ21" s="1"/>
+      <c r="AZ21" s="1">
+        <v>1</v>
+      </c>
       <c r="BA21" s="1"/>
-      <c r="BB21" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB21" s="1"/>
       <c r="BC21" s="1">
         <v>1</v>
       </c>
-      <c r="BD21" s="1"/>
+      <c r="BD21" s="1">
+        <v>1</v>
+      </c>
       <c r="BE21" s="1"/>
-      <c r="BF21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2290,11 +2311,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="AP22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2338,84 +2359,85 @@
       <c r="T23" s="1">
         <v>1</v>
       </c>
-      <c r="U23" s="1">
-        <v>1</v>
-      </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1">
-        <v>1</v>
-      </c>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
+        <v>1</v>
+      </c>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1">
+        <v>1</v>
+      </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1">
+        <v>1</v>
+      </c>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG23" s="1"/>
       <c r="AH23" s="1">
         <v>1</v>
       </c>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="1"/>
       <c r="AK23" s="1">
         <v>1</v>
       </c>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="1"/>
       <c r="AN23" s="1">
         <v>1</v>
       </c>
-      <c r="AO23" s="1"/>
+      <c r="AO23" s="1">
+        <v>1</v>
+      </c>
       <c r="AP23" s="1"/>
-      <c r="AQ23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="1"/>
       <c r="AV23" s="1">
         <v>1</v>
       </c>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX23" s="1"/>
       <c r="AY23" s="1">
         <v>1</v>
       </c>
-      <c r="AZ23" s="1"/>
+      <c r="AZ23" s="1">
+        <v>1</v>
+      </c>
       <c r="BA23" s="1"/>
-      <c r="BB23" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB23" s="1"/>
       <c r="BC23" s="1">
         <v>1</v>
       </c>
-      <c r="BD23" s="1"/>
+      <c r="BD23" s="1">
+        <v>1</v>
+      </c>
       <c r="BE23" s="1"/>
-      <c r="BF23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -2425,11 +2447,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="W24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="X24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2473,84 +2495,85 @@
       <c r="T25" s="1">
         <v>1</v>
       </c>
-      <c r="U25" s="1">
-        <v>1</v>
-      </c>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1">
-        <v>1</v>
-      </c>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
-      <c r="AG25" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG25" s="1"/>
       <c r="AH25" s="1">
         <v>1</v>
       </c>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="1"/>
       <c r="AK25" s="1">
         <v>1</v>
       </c>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="1"/>
       <c r="AN25" s="1">
         <v>1</v>
       </c>
-      <c r="AO25" s="1"/>
+      <c r="AO25" s="1">
+        <v>1</v>
+      </c>
       <c r="AP25" s="1"/>
-      <c r="AQ25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="1"/>
       <c r="AV25" s="1">
         <v>1</v>
       </c>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX25" s="1"/>
       <c r="AY25" s="1">
         <v>1</v>
       </c>
-      <c r="AZ25" s="1"/>
+      <c r="AZ25" s="1">
+        <v>1</v>
+      </c>
       <c r="BA25" s="1"/>
-      <c r="BB25" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB25" s="1"/>
       <c r="BC25" s="1">
         <v>1</v>
       </c>
-      <c r="BD25" s="1"/>
+      <c r="BD25" s="1">
+        <v>1</v>
+      </c>
       <c r="BE25" s="1"/>
-      <c r="BF25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -2560,11 +2583,11 @@
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="AP26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2608,84 +2631,85 @@
       <c r="T27" s="1">
         <v>1</v>
       </c>
-      <c r="U27" s="1">
-        <v>1</v>
-      </c>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1">
-        <v>1</v>
-      </c>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1">
+        <v>1</v>
+      </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1">
+        <v>1</v>
+      </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
-      <c r="AG27" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG27" s="1"/>
       <c r="AH27" s="1">
         <v>1</v>
       </c>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
         <v>1</v>
       </c>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="1"/>
       <c r="AN27" s="1">
         <v>1</v>
       </c>
-      <c r="AO27" s="1"/>
+      <c r="AO27" s="1">
+        <v>1</v>
+      </c>
       <c r="AP27" s="1"/>
-      <c r="AQ27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR27" s="1"/>
-      <c r="AS27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT27" s="1"/>
-      <c r="AU27" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="1"/>
       <c r="AV27" s="1">
         <v>1</v>
       </c>
-      <c r="AW27" s="1"/>
-      <c r="AX27" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="1"/>
       <c r="AY27" s="1">
         <v>1</v>
       </c>
-      <c r="AZ27" s="1"/>
+      <c r="AZ27" s="1">
+        <v>1</v>
+      </c>
       <c r="BA27" s="1"/>
-      <c r="BB27" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB27" s="1"/>
       <c r="BC27" s="1">
         <v>1</v>
       </c>
-      <c r="BD27" s="1"/>
+      <c r="BD27" s="1">
+        <v>1</v>
+      </c>
       <c r="BE27" s="1"/>
-      <c r="BF27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2695,11 +2719,11 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="V28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2743,84 +2767,85 @@
       <c r="T29" s="1">
         <v>1</v>
       </c>
-      <c r="U29" s="1">
-        <v>1</v>
-      </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1">
-        <v>1</v>
-      </c>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1">
+        <v>1</v>
+      </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG29" s="1"/>
       <c r="AH29" s="1">
         <v>1</v>
       </c>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="1"/>
       <c r="AK29" s="1">
         <v>1</v>
       </c>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="1"/>
       <c r="AN29" s="1">
         <v>1</v>
       </c>
-      <c r="AO29" s="1"/>
+      <c r="AO29" s="1">
+        <v>1</v>
+      </c>
       <c r="AP29" s="1"/>
-      <c r="AQ29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR29" s="1"/>
-      <c r="AS29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT29" s="1"/>
-      <c r="AU29" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="1"/>
       <c r="AV29" s="1">
         <v>1</v>
       </c>
-      <c r="AW29" s="1"/>
-      <c r="AX29" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX29" s="1"/>
       <c r="AY29" s="1">
         <v>1</v>
       </c>
-      <c r="AZ29" s="1"/>
+      <c r="AZ29" s="1">
+        <v>1</v>
+      </c>
       <c r="BA29" s="1"/>
-      <c r="BB29" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB29" s="1"/>
       <c r="BC29" s="1">
         <v>1</v>
       </c>
-      <c r="BD29" s="1"/>
+      <c r="BD29" s="1">
+        <v>1</v>
+      </c>
       <c r="BE29" s="1"/>
-      <c r="BF29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -2833,11 +2858,11 @@
       <c r="N30" s="8">
         <v>0</v>
       </c>
-      <c r="BD30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BE30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -2881,84 +2906,85 @@
       <c r="T31" s="1">
         <v>1</v>
       </c>
-      <c r="U31" s="1">
-        <v>1</v>
-      </c>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1">
-        <v>1</v>
-      </c>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1">
+        <v>1</v>
+      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1">
+        <v>1</v>
+      </c>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG31" s="1"/>
       <c r="AH31" s="1">
         <v>1</v>
       </c>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="1"/>
       <c r="AK31" s="1">
         <v>1</v>
       </c>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="1"/>
       <c r="AN31" s="1">
         <v>1</v>
       </c>
-      <c r="AO31" s="1"/>
+      <c r="AO31" s="1">
+        <v>1</v>
+      </c>
       <c r="AP31" s="1"/>
-      <c r="AQ31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="1"/>
       <c r="AV31" s="1">
         <v>1</v>
       </c>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="1"/>
       <c r="AY31" s="1">
         <v>1</v>
       </c>
-      <c r="AZ31" s="1"/>
+      <c r="AZ31" s="1">
+        <v>1</v>
+      </c>
       <c r="BA31" s="1"/>
-      <c r="BB31" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB31" s="1"/>
       <c r="BC31" s="1">
         <v>1</v>
       </c>
-      <c r="BD31" s="1"/>
+      <c r="BD31" s="1">
+        <v>1</v>
+      </c>
       <c r="BE31" s="1"/>
-      <c r="BF31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -2968,11 +2994,11 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="AP32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3016,84 +3042,85 @@
       <c r="T33" s="1">
         <v>1</v>
       </c>
-      <c r="U33" s="1">
-        <v>1</v>
-      </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1">
-        <v>1</v>
-      </c>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1">
+        <v>1</v>
+      </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1">
+        <v>1</v>
+      </c>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG33" s="1"/>
       <c r="AH33" s="1">
         <v>1</v>
       </c>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="1"/>
       <c r="AK33" s="1">
         <v>1</v>
       </c>
-      <c r="AL33" s="1"/>
-      <c r="AM33" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="1"/>
       <c r="AN33" s="1">
         <v>1</v>
       </c>
-      <c r="AO33" s="1"/>
+      <c r="AO33" s="1">
+        <v>1</v>
+      </c>
       <c r="AP33" s="1"/>
-      <c r="AQ33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR33" s="1"/>
-      <c r="AS33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="1"/>
-      <c r="AU33" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU33" s="1"/>
       <c r="AV33" s="1">
         <v>1</v>
       </c>
-      <c r="AW33" s="1"/>
-      <c r="AX33" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX33" s="1"/>
       <c r="AY33" s="1">
         <v>1</v>
       </c>
-      <c r="AZ33" s="1"/>
+      <c r="AZ33" s="1">
+        <v>1</v>
+      </c>
       <c r="BA33" s="1"/>
-      <c r="BB33" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB33" s="1"/>
       <c r="BC33" s="1">
         <v>1</v>
       </c>
-      <c r="BD33" s="1"/>
+      <c r="BD33" s="1">
+        <v>1</v>
+      </c>
       <c r="BE33" s="1"/>
-      <c r="BF33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -3103,11 +3130,11 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="AQ34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AR34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3151,84 +3178,85 @@
       <c r="T35" s="1">
         <v>1</v>
       </c>
-      <c r="U35" s="1">
-        <v>1</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1">
-        <v>1</v>
-      </c>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1">
+        <v>1</v>
+      </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1">
+        <v>1</v>
+      </c>
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
-      <c r="AG35" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG35" s="1"/>
       <c r="AH35" s="1">
         <v>1</v>
       </c>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="1"/>
       <c r="AK35" s="1">
         <v>1</v>
       </c>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM35" s="1"/>
       <c r="AN35" s="1">
         <v>1</v>
       </c>
-      <c r="AO35" s="1"/>
+      <c r="AO35" s="1">
+        <v>1</v>
+      </c>
       <c r="AP35" s="1"/>
-      <c r="AQ35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="1"/>
       <c r="AV35" s="1">
         <v>1</v>
       </c>
-      <c r="AW35" s="1"/>
-      <c r="AX35" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="1"/>
       <c r="AY35" s="1">
         <v>1</v>
       </c>
-      <c r="AZ35" s="1"/>
+      <c r="AZ35" s="1">
+        <v>1</v>
+      </c>
       <c r="BA35" s="1"/>
-      <c r="BB35" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB35" s="1"/>
       <c r="BC35" s="1">
         <v>1</v>
       </c>
-      <c r="BD35" s="1"/>
+      <c r="BD35" s="1">
+        <v>1</v>
+      </c>
       <c r="BE35" s="1"/>
-      <c r="BF35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3238,11 +3266,11 @@
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="AP36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -3286,84 +3314,85 @@
       <c r="T37" s="1">
         <v>1</v>
       </c>
-      <c r="U37" s="1">
-        <v>1</v>
-      </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1">
-        <v>1</v>
-      </c>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1">
+        <v>1</v>
+      </c>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
-      <c r="AC37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1">
+        <v>1</v>
+      </c>
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
-      <c r="AG37" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG37" s="1"/>
       <c r="AH37" s="1">
         <v>1</v>
       </c>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="1"/>
       <c r="AK37" s="1">
         <v>1</v>
       </c>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="1"/>
       <c r="AN37" s="1">
         <v>1</v>
       </c>
-      <c r="AO37" s="1"/>
+      <c r="AO37" s="1">
+        <v>1</v>
+      </c>
       <c r="AP37" s="1"/>
-      <c r="AQ37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="1"/>
       <c r="AV37" s="1">
         <v>1</v>
       </c>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="1"/>
       <c r="AY37" s="1">
         <v>1</v>
       </c>
-      <c r="AZ37" s="1"/>
+      <c r="AZ37" s="1">
+        <v>1</v>
+      </c>
       <c r="BA37" s="1"/>
-      <c r="BB37" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB37" s="1"/>
       <c r="BC37" s="1">
         <v>1</v>
       </c>
-      <c r="BD37" s="1"/>
+      <c r="BD37" s="1">
+        <v>1</v>
+      </c>
       <c r="BE37" s="1"/>
-      <c r="BF37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -3373,11 +3402,11 @@
       <c r="L38">
         <v>0</v>
       </c>
-      <c r="AP38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3421,84 +3450,85 @@
       <c r="T39" s="1">
         <v>1</v>
       </c>
-      <c r="U39" s="1">
-        <v>1</v>
-      </c>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1">
-        <v>1</v>
-      </c>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1">
+        <v>1</v>
+      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1">
+        <v>1</v>
+      </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
-      <c r="AC39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1">
+        <v>1</v>
+      </c>
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
-      <c r="AG39" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG39" s="1"/>
       <c r="AH39" s="1">
         <v>1</v>
       </c>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="1"/>
       <c r="AK39" s="1">
         <v>1</v>
       </c>
-      <c r="AL39" s="1"/>
-      <c r="AM39" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="1"/>
       <c r="AN39" s="1">
         <v>1</v>
       </c>
-      <c r="AO39" s="1"/>
+      <c r="AO39" s="1">
+        <v>1</v>
+      </c>
       <c r="AP39" s="1"/>
-      <c r="AQ39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR39" s="1"/>
-      <c r="AS39" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT39" s="1"/>
-      <c r="AU39" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="1"/>
       <c r="AV39" s="1">
         <v>1</v>
       </c>
-      <c r="AW39" s="1"/>
-      <c r="AX39" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW39" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX39" s="1"/>
       <c r="AY39" s="1">
         <v>1</v>
       </c>
-      <c r="AZ39" s="1"/>
+      <c r="AZ39" s="1">
+        <v>1</v>
+      </c>
       <c r="BA39" s="1"/>
-      <c r="BB39" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB39" s="1"/>
       <c r="BC39" s="1">
         <v>1</v>
       </c>
-      <c r="BD39" s="1"/>
+      <c r="BD39" s="1">
+        <v>1</v>
+      </c>
       <c r="BE39" s="1"/>
-      <c r="BF39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3508,11 +3538,11 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="BD40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BE40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -3556,84 +3586,85 @@
       <c r="T41" s="1">
         <v>1</v>
       </c>
-      <c r="U41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1">
-        <v>1</v>
-      </c>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
-      <c r="AC41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
-      <c r="AG41" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG41" s="1"/>
       <c r="AH41" s="1">
         <v>1</v>
       </c>
-      <c r="AI41" s="1"/>
-      <c r="AJ41" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="1"/>
       <c r="AK41" s="1">
         <v>1</v>
       </c>
-      <c r="AL41" s="1"/>
-      <c r="AM41" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM41" s="1"/>
       <c r="AN41" s="1">
         <v>1</v>
       </c>
-      <c r="AO41" s="1"/>
+      <c r="AO41" s="1">
+        <v>1</v>
+      </c>
       <c r="AP41" s="1"/>
-      <c r="AQ41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR41" s="1"/>
-      <c r="AS41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT41" s="1"/>
-      <c r="AU41" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="1"/>
       <c r="AV41" s="1">
         <v>1</v>
       </c>
-      <c r="AW41" s="1"/>
-      <c r="AX41" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="1"/>
       <c r="AY41" s="1">
         <v>1</v>
       </c>
-      <c r="AZ41" s="1"/>
+      <c r="AZ41" s="1">
+        <v>1</v>
+      </c>
       <c r="BA41" s="1"/>
-      <c r="BB41" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB41" s="1"/>
       <c r="BC41" s="1">
         <v>1</v>
       </c>
-      <c r="BD41" s="1"/>
+      <c r="BD41" s="1">
+        <v>1</v>
+      </c>
       <c r="BE41" s="1"/>
-      <c r="BF41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -3646,11 +3677,14 @@
       <c r="U42">
         <v>1</v>
       </c>
-      <c r="AT42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -3694,84 +3728,85 @@
       <c r="T43" s="1">
         <v>1</v>
       </c>
-      <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1">
-        <v>1</v>
-      </c>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
-      <c r="AC43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
       <c r="AE43" s="1"/>
       <c r="AF43" s="1"/>
-      <c r="AG43" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG43" s="1"/>
       <c r="AH43" s="1">
         <v>1</v>
       </c>
-      <c r="AI43" s="1"/>
-      <c r="AJ43" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="1"/>
       <c r="AK43" s="1">
         <v>1</v>
       </c>
-      <c r="AL43" s="1"/>
-      <c r="AM43" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM43" s="1"/>
       <c r="AN43" s="1">
         <v>1</v>
       </c>
-      <c r="AO43" s="1"/>
+      <c r="AO43" s="1">
+        <v>1</v>
+      </c>
       <c r="AP43" s="1"/>
-      <c r="AQ43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR43" s="1"/>
-      <c r="AS43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT43" s="1"/>
-      <c r="AU43" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="1"/>
       <c r="AV43" s="1">
         <v>1</v>
       </c>
-      <c r="AW43" s="1"/>
-      <c r="AX43" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="1"/>
       <c r="AY43" s="1">
         <v>1</v>
       </c>
-      <c r="AZ43" s="1"/>
+      <c r="AZ43" s="1">
+        <v>1</v>
+      </c>
       <c r="BA43" s="1"/>
-      <c r="BB43" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB43" s="1"/>
       <c r="BC43" s="1">
         <v>1</v>
       </c>
-      <c r="BD43" s="1"/>
+      <c r="BD43" s="1">
+        <v>1</v>
+      </c>
       <c r="BE43" s="1"/>
-      <c r="BF43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -3781,11 +3816,11 @@
       <c r="L44">
         <v>0</v>
       </c>
-      <c r="AP44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -3829,84 +3864,85 @@
       <c r="T45" s="1">
         <v>1</v>
       </c>
-      <c r="U45" s="1">
-        <v>1</v>
-      </c>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1">
-        <v>1</v>
-      </c>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1">
+        <v>1</v>
+      </c>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
-      <c r="AC45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1">
+        <v>1</v>
+      </c>
       <c r="AE45" s="1"/>
       <c r="AF45" s="1"/>
-      <c r="AG45" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG45" s="1"/>
       <c r="AH45" s="1">
         <v>1</v>
       </c>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="1"/>
       <c r="AK45" s="1">
         <v>1</v>
       </c>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="1"/>
       <c r="AN45" s="1">
         <v>1</v>
       </c>
-      <c r="AO45" s="1"/>
+      <c r="AO45" s="1">
+        <v>1</v>
+      </c>
       <c r="AP45" s="1"/>
-      <c r="AQ45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR45" s="1"/>
-      <c r="AS45" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT45" s="1"/>
-      <c r="AU45" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="1"/>
       <c r="AV45" s="1">
         <v>1</v>
       </c>
-      <c r="AW45" s="1"/>
-      <c r="AX45" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="1"/>
       <c r="AY45" s="1">
         <v>1</v>
       </c>
-      <c r="AZ45" s="1"/>
+      <c r="AZ45" s="1">
+        <v>1</v>
+      </c>
       <c r="BA45" s="1"/>
-      <c r="BB45" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB45" s="1"/>
       <c r="BC45" s="1">
         <v>1</v>
       </c>
-      <c r="BD45" s="1"/>
+      <c r="BD45" s="1">
+        <v>1</v>
+      </c>
       <c r="BE45" s="1"/>
-      <c r="BF45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -3916,11 +3952,11 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="AP46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -3964,84 +4000,85 @@
       <c r="T47" s="1">
         <v>1</v>
       </c>
-      <c r="U47" s="1">
-        <v>1</v>
-      </c>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1">
-        <v>1</v>
-      </c>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1">
+        <v>1</v>
+      </c>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
-      <c r="AC47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
       <c r="AE47" s="1"/>
       <c r="AF47" s="1"/>
-      <c r="AG47" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG47" s="1"/>
       <c r="AH47" s="1">
         <v>1</v>
       </c>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="1"/>
       <c r="AK47" s="1">
         <v>1</v>
       </c>
-      <c r="AL47" s="1"/>
-      <c r="AM47" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="1"/>
       <c r="AN47" s="1">
         <v>1</v>
       </c>
-      <c r="AO47" s="1"/>
+      <c r="AO47" s="1">
+        <v>1</v>
+      </c>
       <c r="AP47" s="1"/>
-      <c r="AQ47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR47" s="1"/>
-      <c r="AS47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT47" s="1"/>
-      <c r="AU47" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="1"/>
       <c r="AV47" s="1">
         <v>1</v>
       </c>
-      <c r="AW47" s="1"/>
-      <c r="AX47" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX47" s="1"/>
       <c r="AY47" s="1">
         <v>1</v>
       </c>
-      <c r="AZ47" s="1"/>
+      <c r="AZ47" s="1">
+        <v>1</v>
+      </c>
       <c r="BA47" s="1"/>
-      <c r="BB47" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB47" s="1"/>
       <c r="BC47" s="1">
         <v>1</v>
       </c>
-      <c r="BD47" s="1"/>
+      <c r="BD47" s="1">
+        <v>1</v>
+      </c>
       <c r="BE47" s="1"/>
-      <c r="BF47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>55</v>
       </c>
@@ -4054,11 +4091,11 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="BB48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="BC48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>55</v>
       </c>
@@ -4102,80 +4139,81 @@
       <c r="T49" s="1">
         <v>1</v>
       </c>
-      <c r="U49" s="1">
-        <v>1</v>
-      </c>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1">
-        <v>1</v>
-      </c>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1">
+        <v>1</v>
+      </c>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1">
+        <v>1</v>
+      </c>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
-      <c r="AC49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AD49" s="1">
+        <v>1</v>
+      </c>
       <c r="AE49" s="1"/>
       <c r="AF49" s="1"/>
-      <c r="AG49" s="1">
-        <v>1</v>
-      </c>
+      <c r="AG49" s="1"/>
       <c r="AH49" s="1">
         <v>1</v>
       </c>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1">
-        <v>1</v>
-      </c>
+      <c r="AI49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ49" s="1"/>
       <c r="AK49" s="1">
         <v>1</v>
       </c>
-      <c r="AL49" s="1"/>
-      <c r="AM49" s="1">
-        <v>1</v>
-      </c>
+      <c r="AL49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM49" s="1"/>
       <c r="AN49" s="1">
         <v>1</v>
       </c>
-      <c r="AO49" s="1"/>
+      <c r="AO49" s="1">
+        <v>1</v>
+      </c>
       <c r="AP49" s="1"/>
-      <c r="AQ49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR49" s="1"/>
-      <c r="AS49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AT49" s="1"/>
-      <c r="AU49" s="1">
-        <v>1</v>
-      </c>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="1"/>
       <c r="AV49" s="1">
         <v>1</v>
       </c>
-      <c r="AW49" s="1"/>
-      <c r="AX49" s="1">
-        <v>1</v>
-      </c>
+      <c r="AW49" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX49" s="1"/>
       <c r="AY49" s="1">
         <v>1</v>
       </c>
-      <c r="AZ49" s="1"/>
+      <c r="AZ49" s="1">
+        <v>1</v>
+      </c>
       <c r="BA49" s="1"/>
-      <c r="BB49" s="1">
-        <v>1</v>
-      </c>
+      <c r="BB49" s="1"/>
       <c r="BC49" s="1">
         <v>1</v>
       </c>
-      <c r="BD49" s="1"/>
+      <c r="BD49" s="1">
+        <v>1</v>
+      </c>
       <c r="BE49" s="1"/>
-      <c r="BF49" s="1">
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1">
         <v>1</v>
       </c>
     </row>

--- a/butterfly_forage_plants.xlsx
+++ b/butterfly_forage_plants.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FF81E2-A715-0143-BEDD-05243B40BD84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725BB1DD-CD5E-C540-84F2-7C75EDBA7AF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D91D42CE-DEEB-2E4F-9729-BAAF2993C857}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BH$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -694,8 +697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D07C6-306D-9042-A539-6AA44E63D9F9}">
   <dimension ref="A1:BH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2169,7 +2175,7 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="8">
         <v>1</v>
       </c>
       <c r="V20">
@@ -3674,7 +3680,7 @@
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="U42">
+      <c r="U42" s="8">
         <v>1</v>
       </c>
       <c r="V42">
@@ -4218,6 +4224,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BH49" xr:uid="{A8DAF5DA-ECFD-1C40-B050-113EAE12278E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/butterfly_forage_plants.xlsx
+++ b/butterfly_forage_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elinfalla/Dropbox/2020-21/_Imperial_MSc/_Project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725BB1DD-CD5E-C540-84F2-7C75EDBA7AF9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801118D6-75D3-0D45-B450-95A53657371C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D91D42CE-DEEB-2E4F-9729-BAAF2993C857}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Violaceae</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>Brimstone</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>White-letter hairstreak</t>
   </si>
   <si>
-    <t>Lifestage</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
@@ -288,13 +282,19 @@
     <t>Valerianaceae</t>
   </si>
   <si>
-    <t>species_start</t>
-  </si>
-  <si>
-    <t>species_end</t>
-  </si>
-  <si>
     <t>Crops</t>
+  </si>
+  <si>
+    <t>plants_start</t>
+  </si>
+  <si>
+    <t>plants_end</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>lifestage</t>
   </si>
 </sst>
 </file>
@@ -698,10 +698,10 @@
   <dimension ref="A1:BH49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U43" sqref="U43"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,19 +718,19 @@
   <sheetData>
     <row r="1" spans="1:60" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>2</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>4</v>
@@ -760,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>6</v>
@@ -778,43 +778,43 @@
         <v>10</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AA1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AE1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>15</v>
@@ -823,7 +823,7 @@
         <v>16</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>17</v>
@@ -832,7 +832,7 @@
         <v>18</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>19</v>
@@ -841,7 +841,7 @@
         <v>20</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>21</v>
@@ -850,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AU1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>24</v>
@@ -865,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="AX1" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AY1" s="1" t="s">
         <v>26</v>
@@ -874,10 +874,10 @@
         <v>27</v>
       </c>
       <c r="BA1" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>28</v>
@@ -886,24 +886,24 @@
         <v>29</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BH1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1059,10 +1059,10 @@
     </row>
     <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1181,10 +1181,10 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1207,10 +1207,10 @@
     </row>
     <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1329,10 +1329,10 @@
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1616,10 +1616,10 @@
     </row>
     <row r="13" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1752,10 +1752,10 @@
     </row>
     <row r="15" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1874,10 +1874,10 @@
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1909,10 +1909,10 @@
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2031,10 +2031,10 @@
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -2167,10 +2167,10 @@
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2187,10 +2187,10 @@
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
@@ -2309,10 +2309,10 @@
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2323,10 +2323,10 @@
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
@@ -2581,10 +2581,10 @@
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2717,10 +2717,10 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2731,10 +2731,10 @@
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -2870,10 +2870,10 @@
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
@@ -3128,10 +3128,10 @@
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3142,10 +3142,10 @@
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
@@ -3264,10 +3264,10 @@
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3278,10 +3278,10 @@
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
@@ -3400,10 +3400,10 @@
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3414,10 +3414,10 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
@@ -3536,10 +3536,10 @@
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3550,10 +3550,10 @@
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
@@ -3672,10 +3672,10 @@
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -3692,10 +3692,10 @@
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
@@ -3814,10 +3814,10 @@
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
@@ -3950,10 +3950,10 @@
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -3964,10 +3964,10 @@
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
@@ -4086,10 +4086,10 @@
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="3"/>
@@ -4103,10 +4103,10 @@
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
         <v>55</v>
-      </c>
-      <c r="B49" t="s">
-        <v>57</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
